--- a/500all/speech_level/speeches_CHRG-114hhrg22285.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22285.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. The Subcommittee on Commerce, Manufacturing, and Trade will now come to order.    The Chair recognizes himself for 5 minutes for the purposes of an opening statement. And I certainly want to welcome everyone on our panel to the hearing, to provide an update on patent demand letters, the practices and possible solutions.    Unfortunately, abusive patent demand letters are not a new problem, and they are not new to this subcommittee. Patent trolls continue to send demand letters in bulk to induce victims to pay unjustified license fees rather than fight back. Last year, under Subcommittee Chairman Terry, this subcommittee held an oversight hearing, a legislative hearing, and eventually produced and marked up draft legislation targeting bad-faith demand letters. As this subcommittee learned through its process, the act of defining a so-called troll is a difficult task. In protecting companies from trolls, legislation must also not prevent legitimate patent holders from protecting their rights from being infringed upon by other actors. But a task that is difficult is not a task that is impossible, and I have a sincere belief that in the realm of patent demand letters, like so many other areas under the jurisdiction of this subcommittee, can effect a bipartisan agreement and legislation.    So here we are in the new year, in a new Congress, and we renew the effort to forge ahead to achieve this goal. We again take aim to solve a small piece of the patent world that has caused some of the greatest consternation. I sincerely believe that a targeted solution to this problem is the best one, and I hope that our hearing today will restart the conversations on how best to stop this activity, yet allow legitimate patent holders to proceed.    The truth is that the destructive business model of the so-called patent troll has largely skated just beyond the reach of law, and as a result, crime pays. And because Federal law has been slow to keep up with the evolving world of patent trolls, even in a subject area where Federal jurisdiction is clearly delineated in the Constitution's Article I enumerated powers of Congress, the States now have felt an obligation to begin looking at ways to protect their constituent companies. Protection of intellectual property rights is a Federal issue. Indeed, Article I, Section 8, clause 8 clearly envisions Congress as having both the power and the duty to promote the Progress of Science and useful Arts, by securing for limited Times to authors and inventors the exclusive rights to their respective writings and Discoveries. It would appear from the stories we have all heard about patent trolls that the protection of these rights is not being considered. This committee wishes to change that equation.    I am especially concerned about the effects these fraud schemes have on small businesses. When a business receives a demand letter, especially one that is intentionally vague or misleading, many small business owners simply lack the tools necessary to distinguish a bogus assertion from a legitimate infringement claim. However, the United States Patent Office lists three Web sites; Stand Up To the Demand, ThatPatentTool, and Trolling Effects, as resources that companies can use to protect themselves. There is work going on beyond this subcommittee to address some of this--these issues. For example, a number of Web sites have popped up for demand letter recipients to verify the legitimacy of infringement claims against them. Eighteen States have also enacted legislation, and a handful of State attorneys general have brought cases under their consumer protection laws.    As we will discuss today, it may be that State efforts to curb patent abuses are on uncertain legal footing due to preemption of the First Amendment doctrines that were developed by the Federal courts. These doctrines are designed to protect the fair assertion of patent rights, and any legislation this subcommittee produces must allow legitimate assertions. It is my intention that this committee can work with companies who own large patent holdings to address this issue. As many companies have seen, illegitimate claims could ultimately undercut the value of legitimate patents. To help us strike the proper balance, we will hear from experts in the field as well as representatives from both abusive demand letter victims and a large patent holder. We hope this information--this will inform the direction of whatever legislation this subcommittee ultimately produces. I hope that we may use last year's draft, the Targeting Rogue and Opaque Letters Act, as a place to begin the discussion. One area where we will need to focus on is how the bad faith standard in that legislation would work with the required disclosures in the Act. Further, how those required disclosures fit with the prohibited bad acts included in the draft legislation, and I hope that is an area we can examine closely. The subcommittee is eager to work with the panelists before us and others to address this problem.    I thank the witnesses for their testimonies, and I certainly look forward to the discussion today.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. And much of what I will say will echo the things that you have said. The--along the lines of the problems of patent trolls. I see the rise of these entities as a serious threat to consumers and businesses all across the country, and I want to explore whether we can strengthen existing protections against them as well.    Patent assertion entities typically purchase patents and then assert that those patents have been infringed, sending vague and threatening letters to hundreds or even thousands of end users, typically, small businesses or entrepreneurs. Those businesses are told that they can pay the patent troll to continue using the technology. And considering the cost and resources needed to vet and fight a patent infringement claim, although the chairman did point out some resources that are available, many small businesses do choose to settle the claim by paying the troll. Others investigate and fight the claims, draining precious resources and stunting the growth of their businesses.    It costs patent trolls virtually nothing to send patent demand letters, but they have cost American businesses tens of billions of dollars in recent years. At best, patent trolls are misleading, and at worst, they are extortionists.    This is fundamentally a fairness issue. As the subcommittee charged with protecting consumers and promoting fair business practices, we must work to reduce frivolous patent claims. I am glad that the FTC is using its existing authority to order injunctions on patent assertion entities that are determined to engage in unfair deceptive acts or practices. I believe that if we legislate on this issue, we should include new authority for the FTC to collect civil penalties for those abuses.    While we should also make sure that important consumer and business protections are guaranteed and enforced at the State level, including Illinois, remain in place. Federal legislation could also ensure the transparency and baseline standards are required for patent demand letters.    There are many ideas about how to increase transparency, including proposals to require information in patent demand letters, about the patent-alleged infringement that--the patent that is allegedly infringed, and the technology used that allegedly infringes on the patent.    As we consider acting on this issue, we must also recognize that many patent infringement claims are reasonable efforts, as the chairman mentioned, reasonable efforts to protect intellectual property. We also need to be careful to make sure that universities, research institutions, and others that develop and hold patents, but may not develop products for sale, are not unfairly labeled as patent trolls. We should not undermine the ability of innovators to develop and defend their patents.    I look forward to hearing the ideas of the panel about how we could move forward with legislation, and how it should be structured to make sure that patent demand letters are more fair and transparent moving forward.    And I thank you again, Mr. Chairman, for holding this hearing. I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. No, thank you.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    The patent system plays a crucial role in promoting innovation. It provides an incentive to inventors to make costly and time-consuming investments in research and development of new inventions. At the same time, the system requires that the inventions be disclosed so that others can build upon the inventions. Unfortunately, there are a number of problems with the patent system, and reforms are needed.    I have long pushed to reduce the backlog of patent applications at the Patent and Trade Office, but we also need to work to address the concerns that some applications are being approved for inventions that are not truly new or non-obvious. In addition, the patent litigation system must be streamlined.    While most patent-related issues are under the purview of the Judiciary Committee, and I look forward to its action on patent system reform, the Energy and Commerce Committee is responsible for efforts to curb fraud. And one part of the patent litigation area in need of attention is the rise of so-called patent trolls, and the sometimes fraudulent demand letters they send to small businesses. This trolling activity is a problem. Patent trolls do not invent, make or sell anything. Instead, they buy up large numbers of patents, often of suspect validity, and then send demand letters or bring law suits using the complexity of the patent system and the high cost of litigation as leverage to force licensing fees or settlements. It is not fair to the targets of these predatory tactics, nor does it serve the interests of true innovators.    And efforts to combat abusive demand letters have already begun. Some State attorneys general have taken legal action to protect their citizens from unfair and deceptive demand letters. In addition, 18 States have already enacted legislation to tackle this abusive activity. Furthermore, the FTC brought an administrative complaint against MPH Technologies, a well-known patent troll. That case was recently settled through a consent order that prohibits MPHJ from making deceptive statements in its demand letters.    Last Congress, this committee held three hearings, and the subcommittee marked up a bill which I believe included problematic language. Among other things, it created a knowledge standard, one not typically needed to prove fraud, and it preempted stronger State laws. I am happy that this issue is being given a fresh review this Congress in an effort to get the language right and work in a bipartisan fashion. If we as a Congress choose to legislate in this area, we need to make sure that we are furthering the interests of the consumer, end users and small businesses, while protecting the vitality of the patent system.    So today's hearing presents an opportunity to hear from witnesses about how big is the problem of fraudulent demand letters, and whether there is an appropriate legislative fix. And I look forward to hearing the witnesses' thoughts on this issue, and their ideas for possible solutions.    I yield back.</t>
   </si>
   <si>
@@ -100,33 +88,21 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Self</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Self. Thank you. Chairman Burgess, Ranking Member Schakowsky and Members of the subcommittee, thank you for the opportunity to appear today to discuss patent demand letters. My name is Laurie Self, and I am Vice President and Counsel, Government Affairs for Qualcomm. Qualcomm is a member of the Innovation Alliance, a coalition of research and development focused companies that believe in the critical importance of maintaining a strong patent system.    Qualcomm is a major innovator in the wireless communications industry, and the world's leading supplier of chipsets that enable 3G and 4G smartphones, tablets and other devices. Qualcomm's founders are the quintessential example of American inventors in the garage who build one of the world's foremost technology companies. Today, the technologies invented by our engineers help make nearly everything you do with your smartphone--help everything you do with your smartphone, from browsing the internet, to sharing videos, to using GPS navigation. We are an invention hub for the mobile age, having spent more than $34 billion on R and D since the company was founded in 1985. Through the broad licensing of our patented technologies, Qualcomm has helped foster a thriving mobile industry that accounts for more than one million jobs, and $548 billion of U.S. gross domestic product. Qualcomm itself has more than 31,000 employees, the vast majority of whom are engineers based in the United States.    It is worth noting that Qualcomm is not a plaintiff in any pending patent litigation, but we are a defendant in several patent infringement law suits, some of which were brought by so-called patent assertion entities. However, I am not here to criticize or defend PAEs, but instead to address what we believe should be the proper focus of any patent demand letter legislation; namely, targeting abusive demand letter activities without unintentionally damaging important patent rights.    Notice letters play an important role in the patent system for both patent holders and accused infringers. Patent law encourages, and sometimes requires patent holders to take reasonable steps to notify others of possible infringement. Meaningful patent protection including the ability to provide notice is a key factor for companies like Qualcomm in deciding whether to invest in new products and technologies. Qualcomm appreciates the committee's interest in curtailing abusive demand letter activities. At the same time, we urge the committee to be cautious so as to not inadvertently hinder legitimate patent enforcement practices. A demand letter law that makes patent notification or enforcement too burdensome, too costly or too risky may deter appropriate notice activity. If valid patent owners are afraid to seek compensation for use of their inventions, the whole patent-based system of incentivizing innovation is undermined.    Qualcomm supports the Demand Letter Bill that passed this committee in July 2014, the Targeting Rogue and Opaque Letters Act. The TROL Act includes several key features that are necessary to strike the appropriate balance. First, the bill clarifies rather than expands the FTC's existing authority under Section 5 to address abusive demand letters.    Second, the bill is limited to situations in which the sender has engaged in a pattern or practice of mailing bad faith demand letters to consumers. The pattern or practice requirement appropriately targets the mass mailing of deceptive demand letters, and it is consistent with the FTC's Section 5 authority. An explicit bad faith requirement is necessary to protect patent holders' constitutional rights. Patent property rights are rooted in Article I of the Constitution, and the First Amendment provides strong protections for patent demand letters. As courts across the country have recognized, pre-law suit communications implicate both the freedom of speech and the constitutional right to petition the Government. To conform with the constitution, legislation must avoid punishing patent holders for good faith conduct. By clarifying the FTC's enforcement authority under Section 5, the bill is limited to communications sent to consumers, including mom and pop retailers, which protects those most vulnerable to abusive demand letters, while reducing the risk that the FTC will be drawn into business-to-business disputes.    Third, the bill clearly describes the conduct that will be considered unfair and deceptive, and does not impose overly burdensome disclosure requirements.    Fourth, the bill preempts State demand letter laws that allow State attorneys general to bring enforcement actions under the Federal statute.    With nearly 20 State legislatures having passed such bills over the past 2 years, and another dozen considering such a bill now, it would be extremely burdensome to subject patent owners to a patchwork of different demand letter requirements in every State. Preemption is appropriate and necessary in the demand letter context because unlike the TROL Act, many of these State demand letter laws are overly broad in scope, highly burdensome to patent owners, and risk penalizing ordinary commercial and pre-litigation communications, which are protected under the First Amendment.    These four features are critical to Qualcomm's support, and we urge the committee to retain these requirements and limitations in the bill. Qualcomm looks forward to working with the committee in its efforts to achieve a balanced and narrowed-tailored bill.    Thank you for allowing me to testify today, and I look forward to answering your questions.</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Malta. Chairman Burgess, Ranking Member Schakowsky, and Members of the subcommittee, my name is Vincent Malta. I am the broker of record for Malta and Company in San Francisco, California. I serve as the 2015 National Association of Realtors' Liaison for Law and Policy, and I am here to testify on behalf of the one million members of NAR.    I am also here representing United for Patent Reform Coalition, a broad and diverse group of Main Street, high tech and manufacturing companies that have united to urge the passing of strong, commonsense patent reform.    In the real estate industry, patent trolls have targeted Realtor brokers, agents and multiple listing services for implementing simple Web site technologies. Here are 5 examples where patent trolls have alleged infringement. First, the Real Estate Alliance Ltd. Filed an infringement law suit against a broker and other unnamed defendants, charging that zooming in to locate points on a map was an infringement. The case was eventually dropped after 2 years.    Second, a company called Civix-Ddi LLC charged that providing a searchable data base of property listings infringes its patents. Civix have targeted not only multiple listing services in the real estate industry, but Microsoft, Expedia, Move and other companies. NAR decided to settle this case for $7.5 million, fearing that the cost of letting the case go to trial would be exponentially more expensive.    Third, Data Distribution Technologies charged that a number of real estate firms were in patent violation by providing updates to consumers when properties matched their search criteria are coming on the market. This patent is undeniably abstract because it describes what any real estate professional already does. The real estate companies had to expend time and money to challenge the validity of this abstract patent, finally settling after 2 years.    The Austin Board of Realtors received a demand letter alleging patent infringement for having a drop-down menu on their Web site.    And finally, NAR members received abusive demand letters from the MPHJ Technologies troll that notoriously sent over 16,000 demand letters to businesses, demanding payment for using basic scan-to-mail technology.    Simply put, these patent trolls make everyday business practices potential law suits. Patent trolls typically start by sending form demand letters to dozens, hundreds, or even thousands of businesses at a time. They claim these businesses are infringing on patents, but provide little to no evidence. Typically, the sender will list a patent number only, with no reference to which claim within the patent is alleged to have been infringed. The letters are often intentionally vague, and demand a licensing fee or threaten litigation. If the business does speak with a lawyer, they are often advised to pay the fee rather than risk very costly infringement law suits. This essentially is a junk mail approach that is clogging up our legal system. NAR members and other small businesses rightfully feel extorted by this process.    In 2013, more than 2,600 companies were sued by patent trolls, representing 60 percent of all patent infringement cases brought that year. Small and medium-sized companies paid on average $1 \\1/3\\ million dollars to settle patent troll cases, and $1.7 million on average in court defense costs for patent troll litigation. Economists estimate that in 2011, patent trolls cost operating companies $80 billion in direct and indirect costs. That is more than the $66 billion State budget of Illinois, and in 2013, almost reaches the $96 billion State budget in Texas. This is a serious problem for the American business community, in particular, small businesses who lack the resources to fight these pointless battles. NAR's most recent surveys indicate that more than half of all realty firms have less than 25 agents.    In the last Congress, this subcommittee passed legislation aimed at addressing demand letter abuse. NAR and the Coalition appreciated the subcommittee's work on the Targeting Rogue and Opaque Letters Act. As the subcommittee considers legislation in this Congress, we ask that you consider a few essential guidelines. Fundamentally, patent demand letters must be held to a practical standard of transparency. They must specify the relevant patent claim at issue, they must detail all businesses allegedly infringed, they must include a description of the patent troll's investigation of the alleged infringing activity, and they must disclose the real parties and interest to the dispute. This minimum information will help recipients to thoughtfully review whether infringement allegations merit an agreement to license.    In conclusion, NAR and the United for Patent Reform Coalition urge Congress to act swiftly to enact meaningful demand letter reform for the good of our Nation's small business community, and while demand letter reform is crucial, as an important first step towards broader patent reform, it requires comprehensive and multifaceted reforms.    Thank you for your consideration of our views.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Gentleman yields back. Chair thanks the gentleman for his testimony.    Professor Gugliuzza, you are now recognized for 5 minutes for the purposes of an opening statement.</t>
   </si>
   <si>
-    <t>Gugliuzza</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gugliuzza. Chairman Burgess, Ranking Member Schakowsky, Members of the subcommittee, thank you for inviting me to testify. My name is Paul Gugliuzza, and I am an associate professor of law at Boston University School of Law.    My research focuses on patent law and patent litigation. Most relevant to this hearing, I have spent the past 2 years studying the issue of patent demand letters, focusing in particular on efforts by both State governments and the Federal Government to address the problem of unfair and deceptive conduct in patent enforcement.    To briefly summarize my conclusions, a small number of patent holders, often called bottom feeder patent trolls, have been abusing the patent system. These patent holders blanket the country with thousands of letters demanding that the recipients purchase a license for a few thousand dollars, or else face an infringement suit. The letters are usually sent to small businesses, nonprofits that do not have the resources to defend against claims of patent infringement. And the letters often contain false or misleading statements, calculated to scare the recipient into purchasing a license without investigating the merits of the allegations.    In response to this troubling behavior, legislatures in 18 States have adopted statutes that, generally speaking, outlawed bad faith assertions of patent infringement. These statutes, however, may be unconstitutional. The U.S. Court of Common Pleas Appeals for the Federal Circuit, which hears all appeals in patent cases nationwide, has held that patent holders are immune from civil claims challenging their acts of enforcement unless the patent holder knew that its infringement allegations were objectively baseless. This rule could provide patent holders with nearly absolutely immunity from liability under the new statutes. In fact, the rules already immunize two notorious trolls; Innovatio IP Ventures and MPHJ Technology Investments, from legal challenges to their enforcement campaigns under State consumer protection laws.    Although the Federal circuit has sometimes called this immunity rule a matter of the Federal Patent Acts' preemption of State law, this rule could also limit the ability of the Federal Government to regulate patent enforcement behavior. This is because the Federal circuit's decisions are not grounded in the Constitution's Supremacy Clause, which is the usual source of preemption doctrine, but in the First Amendment right to petition the Government. Unlike the Supremacy Clause, the First Amendment limits the power of the Federal Government, not just State governments. Accordingly, patent holders may also be able to invoke this immunity to thwart Federal initiatives to fight patent trolls, including any legislation this committee might consider.    To be clear, no court has yet addressed the constitutionality of the new State statutes. Moreover, as I discuss in more detail in my written statement, there is a strong argument that the Federal circuit's immunity doctrine is wrong as a matter of law, policy and historical practice. So it is entirely possible that the Federal circuit can revise its immunity doctrine to accommodate greater regulation of patent enforcement conduct. Indeed, the Federal circuit keeps close watch when Congress is considering amending patent law, and in the past decade, the court has repeatedly revised its case law to align with proposed legislation.    This hearing provides a welcome occasion to discuss the innovative steps that State governments have taken to combat unfair and deceptive patent enforcement. Any bill advanced by this committee should, in my view, capitalize on the respective strengths of State governments and the Federal Government in this area. The strengths of State governments include, first, the quantity of law enforcement resources that could be provided by dozens of States attorneys general offices cooperating to fight abusive patent enforcement. And second, the accessibility of State governments to the small businesses, nonprofits and local governments most likely to be targeted by deceptive campaigns of patent enforcement. By contrast, Federal legislation on patent demand letters would provide the benefits of legal uniformity and predictability for patent holders about whether or not their enforcement actions are legal. In addition, as I explained in my written testimony, Federal legislation could clarify difficult jurisdictional issues that currently arise in cases challenging the lawfulness of patent enforcement conduct.    If this committee determines that Federal legislation is warranted, that legislation should, in my view, specifically condemn bad faith assertions of patent infringement. Until the Federal circuit adopted its objective baselessness requirement, courts had applied a bad faith standard for nearly a century, striking an appropriate balance between the goals of punishing extortionate schemes of patent enforcement, and respecting patent holders' rights to make legitimate allegations of infringement.    Thank you again for inviting me to testify, and I would be pleased to answer any questions the committee might have for me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Gentleman yields back. The Chair thanks the gentleman for his testimony.    Ms. Ranieri, you are recognized for 5 minutes for the purposes of an opening statement.</t>
   </si>
   <si>
-    <t>Ranieri</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ranieri. Mr. Chairman, Ranking Member Schakowsky, and Members of the subcommittee, thank you for the opportunity to be here today.    For those of you who aren't familiar with my organization, the Electronic Frontier Foundation, or EFF, we are a nonprofit organization dedicated to protecting consumer interests, innovation and free expression in the digital world. As part of that work, we regularly advocate for reform of the patent system in courts, Congress, and at the Patent and Trademark Office. EFF is greatly encouraged by Congress' interest in the important issue of deceptive and abuse patent rule demand letters, and its impact on consumers and small businesses.    EFF is one of the few nonprofit legal services organizations that small businesses and innovators can turn to in order to get help when faced with a patent troll demand letter. Unfortunately, we cannot help everyone, and more importantly, because of a lack of meaningful, manageable legal options, we are too often unable to help push back against those who use deceptive patent demand letters in order to extract money from their victims.    The problem of abusive patent rule demand letters is a result of a perfect storm of circumstances. Patent owners sending these letters use vague and overbroad patents that likely never should have issued, in order to confuse and obfuscate. Patent owners rely on the eye-popping cost of litigation in order to intimidate, and patent owners take advantage of their victims' relative lack of experience with technology and the legal system to ensure improper claims of infringement go unchallenged. For example, in 2011, a company known as Eclipse IP sent demand letters to various retailers alleging infringement of patents on tracking packages through the use of UPS tracking. Eclipse demanded licenses in the hundreds of thousands of dollars. Seeing their customers being targeted, UPS filed a declaratory judgment of non-infringement and invalidity, but before the court could address whether Eclipse's claims of infringement had merit, Eclipse filed what is known as a covenant not to sue. In doing so, Eclipse ensured that its patent rights would not actually be litigated, that is, they did everything in their power to stop the court from deciding the merits of its claims. Eclipse apparently merely wanted to extract settlements from its victims, despite assertions in its demand letter that it would engage in litigation if its licensing demands were not met. Since 2011, Eclipse has sued over 100 companies and presumably sent letters to countless others.    Letters and actions like Eclipse's are all too common. Other letters employ tactics such as not mentioning licenses that likely exhaust patent rights, or use complex and vague nonsense terms from the patent in order to make infringement claims that would never have been apparent to someone reading the patent. Dealing with even the most frivolous of letters takes time and money away from what small businesses should be doing, which is growing their business and creating jobs.    I could tell many more stories, but most demand letters never see the light of day. Recipients of letters from patent trolls are often afraid of speaking out, and no wonder, by speaking out, they worry they would become an even bigger target and subject to even larger demands they cannot afford. Patent trolls use this fact to hide their practices from scrutiny and from lawmakers and the public.    Deceptive and unfair patent troll demand letters must be addressed, but it is important to address them in a way that makes sense. Specifically, Congress should not limit the ability of State attorneys general to protect their citizens, whether that be through State laws addressing abusive demand letters, or through their own little FTC acts. State AGs are often the closest to the problem, and in the best position to address deceptive practices targeted at their citizens. Second, Congress should allow for flexibility in the law. Overly rigid rules regarding what constitutes bad faith will allow patent trolls to comply with the letter of the law but not the spirit. As a lawyer, I can assure you that we are enterprising people. If there is a loophole to be found, we will find it. Flexibility is key to ensuring patent trolls don't find new ways to deceive their targets.    Finally, in order to protect technology end users such as retailers and tracking--such as retailers implementing tracking technology, or the coffee shop offering Wi-Fi, Congress should mandate disclosure requirements. Through these disclosure requirements, Congress can better understand the scope of the problem, and agencies such as the PTO, the FTC, and nonprofit organizations such as EFF, can better target those practices and those patents that are being abused.    Addressing the deceptive patent troll demand letter problem is an important piece of broader patent reform. In tandem with other measures, we can limit the ability of patent holders to use patents that never should have been issued, to extort undeserved money from those who just want to pursue their livelihoods.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. I thank you, Mr. Chairman. And I would like to thank our witnesses for their testimony this morning.    In addition to serving on the Energy and Commerce Committee, I also serve on the Small Business Committee in our House, and our small business community lists fear of patent litigation as one of the biggest issues they face. So I am pleased that we are taking up this issue today.    Frequently, patent trolls target end users of patented technology, such as small, local businesses who have simply purchased or use off-the-shelf products like a wireless router or scanner. These small businesses often lack expertise in patent law, and have few resources. When faced with the cost of defending even perfectly reasonable behavior, they find it is cheaper just to make a payment to settle the case.    Ms. Ranieri, to what extent do patent trolls target the little guy, small businesses, startup, and mom and pop establishments, and what are some examples of everyday products that patent trolls are now claiming infringe their intellectual property?</t>
   </si>
   <si>
@@ -289,9 +262,6 @@
     <t>412250</t>
   </si>
   <si>
-    <t>Gus M. Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you, Mr. Chairman. I appreciate it so very much, and I thank the panel for their testimony.    Patent demand letters reform is an important part of curbing abusive practices that hurt legitimate businesses, as you know. However, I am concerned that overly broad definitions of patent assertion entities in other provisions that have been proposed, such as fee shifting and joinder, will limit our Nation's research universities, and their ability to have patented research discoveries transferred to start up receiving venture funding that can develop and commercialize these early discoveries.    The University of South Florida, just outside of my district in Tampa, Florida, is a world leader in university-based patents, licenses and startup companies, and is a major regional economic hub and job creator in our area.    Again, Ms. Ranieri and Professor Gugliuzza, excuse me if I mispronounce, what do you believe is the appropriate balance to ensure that the technology transfer process thrives, while simultaneously implementing the real reform targeted at bad actors with no intention to commercialize innovations?</t>
   </si>
   <si>
@@ -322,9 +292,6 @@
     <t>412543</t>
   </si>
   <si>
-    <t>Joseph P. Kennedy III</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you, Mr. Chairman. I want to thank the witnesses for testifying today and for your attention to an important topic.    Professor Gugliuzza, thanks for bringing the Boston weather with you. I wish you would have left it at home, but nevertheless, appreciate it.    I want to flush out a little bit of a conversation we have had in the--before as well. My First Amendment law, while being a lawyer, is perhaps a little shaky. So there has been, I think some testimony that has touched already on the Noerr-Pennington doctrine, which touches on immunity of parties who are petitioning the Government for certain types of liability. Generally speaking, it is my understanding that this doctrine began in an antitrust base, but it has been steadily expanded over the course of case law throughout the years.    So, Professor, starring with you, with regard to the Noerr-Pennington doctrine, I think that there are two open areas here, right? One is, does it apply to patent demand letters, and does it apply in the consumer protection context? And I was hoping you can just start with those--kind of that basic framework.</t>
   </si>
   <si>
@@ -376,9 +343,6 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson. I thank the Chair. And welcome to our witnesses. Ms. Self, Mr. Malta, Ms. Ranieri, and certainly no disrespect, but can I call you Professor G? Is that OK, because----</t>
   </si>
   <si>
@@ -439,9 +403,6 @@
     <t xml:space="preserve">    Mr. Burgess. Gentleman yields back. Chair thanks the gentleman.    Chair recognizes the gentleman from California, Mr. Cardenas, for 5 minutes for purposes of questions please.</t>
   </si>
   <si>
-    <t>Cardenas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you very much, Mr. Chairman. And I appreciate this opportunity to discuss this important issue that really is hampering our economic ability throughout the country. One of the things that the United States has been recognized for, and we should be very proud of, is we are the innovative capital of the world, but when we have people who take opportunity to try to thwart that, that is something that, to me, strikes at the core of our ability to continue to be an economic driver, not only for ourselves as a country but for the world.    Last year, I introduced a bipartisan bill to address patent troll abuse at the International Trade Commission. Patent trolls have been impacting businesses in every forum, and we should do everything that we can to curb their ability to exploit businesses of every size, small and large. Patent trolls' abuse of the complicated patent system can harm our economy, and hamper innovation by imposing huge litigation costs on productive companies.    I would like to get a sense of the significance of the problem that we--that faces us here today. Ms. Ranieri, in your testimony, you quoted Seventh Circuit Judge Posner's statement, and I am paraphrasing, patent trolls are not trying to protect the market for products they want to produce, but instead, lay traps for producers. How does patent toll activity negatively affect the economy and innovation as far as you are concerned?</t>
   </si>
   <si>
@@ -469,9 +430,6 @@
     <t>412421</t>
   </si>
   <si>
-    <t>Adam Kinzinger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kinzinger. Thank you, Mr. Chairman. And again, to our witnesses, thank you for being here today and spending some time with us.    Ms. Self, companies like Qualcomm have large patent portfolios because they have invested a large amount of money in new patents and the creation of new products. And presumably, many of Qualcomm's patents can be similar to patents held by other companies. When Qualcomm believes a similar company with a large patent portfolio may be infringing on its patents, how does Qualcomm open communications with that company?</t>
   </si>
   <si>
@@ -541,9 +499,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chair.    Profession Gugliuzza, I am worried about the widespread practice of sending abusive demand letters. As we have heard, it is a drain on employers and a drain on jobs. And apparently, according to a University of California Hastings College of Law study, 70 percent of venture capitalists had portfolio companies that received patent demand letters. It is a--it does seem suspicious to see so many startups hit with patent claims, and it is troubling to think, and as we have heard, that startups in particular may have a good bit of their funding and money going into fighting patent claims right off the bat.    Do you have any sense, or have you seen anything that talks about how much money and how many jobs are being impacted in our economy to fight off these types of abusive demand letters?</t>
   </si>
   <si>
@@ -575,9 +530,6 @@
   </si>
   <si>
     <t>412278</t>
-  </si>
-  <si>
-    <t>Brett Guthrie</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. Thank the panel for being here.    Sorry, I was in another hearing of this same committee, in another subcommittee, so I apologize that I may ask questions and you all sort of repeat a little bit of what Mrs. Brooks just asked, but I think a lot of us here are just trying to get our heads around this. I think when you talk about the sports--I can--my son played little league, because I know there are guys in my area go online, you can buy pictures, and I can see where that-- I mean, $250,000, and those stories are out there, they are real. And that is clear, we need to stop that. Then I have my friend, Thomas Massie here, who represents the northern part of Kentucky, District 4, 3 or--I am 2, so 4 maybe, 4, in Kentucky, he was an inventor. And so when we hear the story like you, Ms. Ranieri, and it is like, well, this is simple, we need to fix this, so that is obviously--obviously needs to be fixed. And then you hear people say, well, if people have patents, if they are not using them, that is a good way--like the manufacturer. Well, then Thomas explains in a long dissertation at breakfast one day about how a lot of people who are legitimate patent holders, who will legitimately invent, hold these patents because they don't have the means or the ability, they are trying to move forward. And so if you do this and this kind of--that kind of reaction to stop patent trolls is going to--could stop the small entrepreneurial inventor, and so you have unintended consequences.    So I am--I guess what I am asking, is there any of this expert panel--where can we delineate between--what--you know, was the old Justice Potter, I know it when I see it. I can't really describe it, but I know it when I see it. And how do you delineate between what is clearly somebody out there patent trolling, versus, you know, somebody like Thomas who works in his garage and comes up with--essentially what you did, come up with several patents that, you know, takes him a while to find the resources to move forward. And so the question is the people just out searching, and then you have trolling, and then you have the people who are legitimate small folks. And that is what we are trying to find with the balance, because we want to fix the problem, but we don't want to have unintended consequences. So I will kind of open it up to the panel.</t>
@@ -1087,11 +1039,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1113,11 +1063,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1137,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1165,11 +1111,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1189,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1217,11 +1159,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1241,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1269,11 +1207,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1293,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1319,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1347,11 +1279,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1371,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1399,11 +1327,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1423,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1451,11 +1375,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1475,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1503,11 +1423,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1527,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1555,11 +1471,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1579,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1607,11 +1519,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1631,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1659,11 +1567,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1683,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1709,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1735,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1761,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1787,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1813,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1839,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1865,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1891,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1917,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1943,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1969,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1995,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2021,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2047,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2073,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2099,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2127,11 +1999,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2151,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2177,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2203,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2229,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2255,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2281,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2307,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2333,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2359,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2387,11 +2239,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2411,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2437,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2463,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2489,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2515,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2541,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2567,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2593,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2619,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>76</v>
-      </c>
-      <c r="H61" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2645,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2671,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>76</v>
-      </c>
-      <c r="H63" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2697,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2723,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" t="s">
-        <v>76</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2751,11 +2575,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2775,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2801,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2827,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2853,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2879,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2905,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2931,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2957,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2983,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3011,11 +2815,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3035,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3061,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3087,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3113,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3139,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3165,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3191,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3217,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3243,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
-      </c>
-      <c r="G85" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3269,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3295,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>102</v>
-      </c>
-      <c r="H87" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3321,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3347,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3373,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3399,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3427,11 +3199,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3451,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3477,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3503,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
-      </c>
-      <c r="G95" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3529,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3555,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3581,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3607,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3633,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3659,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3685,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3711,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
+        <v>108</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>119</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
-      <c r="H103" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3737,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3763,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3789,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3815,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3841,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3867,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3893,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3919,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3947,11 +3679,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3971,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" t="s">
-        <v>141</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3997,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4023,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" t="s">
-        <v>141</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4049,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4075,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" t="s">
-        <v>141</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4101,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4127,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" t="s">
-        <v>141</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4155,11 +3871,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4179,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
-      </c>
-      <c r="G121" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4205,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4231,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
-      </c>
-      <c r="G123" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4257,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4283,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
-      </c>
-      <c r="G125" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4309,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4335,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>150</v>
-      </c>
-      <c r="G127" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4361,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4387,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>150</v>
-      </c>
-      <c r="G129" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4413,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4439,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
-      </c>
-      <c r="G131" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4465,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4491,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
+        <v>137</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
         <v>150</v>
-      </c>
-      <c r="G133" t="s">
-        <v>151</v>
-      </c>
-      <c r="H133" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4517,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4543,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>150</v>
-      </c>
-      <c r="G135" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4569,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4595,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>150</v>
-      </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4621,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4647,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>150</v>
-      </c>
-      <c r="G139" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4673,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4699,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>150</v>
-      </c>
-      <c r="G141" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4727,11 +4399,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4751,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>174</v>
-      </c>
-      <c r="G143" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4777,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>27</v>
-      </c>
-      <c r="G144" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4803,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>174</v>
-      </c>
-      <c r="G145" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4829,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>27</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4855,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>174</v>
-      </c>
-      <c r="G147" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4881,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4907,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>174</v>
-      </c>
-      <c r="G149" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4933,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4959,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>174</v>
-      </c>
-      <c r="G151" t="s">
-        <v>175</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4987,11 +4639,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5011,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>186</v>
-      </c>
-      <c r="G153" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5037,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
-      </c>
-      <c r="G154" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5063,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>186</v>
-      </c>
-      <c r="G155" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5089,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
-      </c>
-      <c r="G156" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5115,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>186</v>
-      </c>
-      <c r="G157" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5141,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5167,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
-      </c>
-      <c r="G159" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5193,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>186</v>
-      </c>
-      <c r="G160" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5219,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
-      </c>
-      <c r="G161" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5245,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>186</v>
-      </c>
-      <c r="G162" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5271,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>27</v>
-      </c>
-      <c r="G163" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5297,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>186</v>
-      </c>
-      <c r="G164" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5323,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>27</v>
-      </c>
-      <c r="G165" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5349,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>186</v>
-      </c>
-      <c r="G166" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5375,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>27</v>
-      </c>
-      <c r="G167" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5401,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>186</v>
-      </c>
-      <c r="G168" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5427,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5453,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
+        <v>171</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
         <v>186</v>
-      </c>
-      <c r="G170" t="s">
-        <v>187</v>
-      </c>
-      <c r="H170" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5479,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5505,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>186</v>
-      </c>
-      <c r="G172" t="s">
+        <v>171</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
         <v>187</v>
-      </c>
-      <c r="H172" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5531,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>27</v>
-      </c>
-      <c r="G173" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5557,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>186</v>
-      </c>
-      <c r="G174" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5583,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>27</v>
-      </c>
-      <c r="G175" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5609,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>186</v>
-      </c>
-      <c r="G176" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5635,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>27</v>
-      </c>
-      <c r="G177" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5661,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>186</v>
-      </c>
-      <c r="G178" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5689,11 +5287,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5713,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
-      </c>
-      <c r="G180" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5741,11 +5335,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5765,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5791,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>186</v>
-      </c>
-      <c r="G183" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5819,11 +5407,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5843,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5871,11 +5455,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5895,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>27</v>
-      </c>
-      <c r="G187" t="s">
-        <v>36</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5921,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>27</v>
-      </c>
-      <c r="G188" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5949,11 +5527,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5975,11 +5551,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5999,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
-      </c>
-      <c r="G191" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6027,11 +5599,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6053,11 +5623,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6077,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>15</v>
-      </c>
-      <c r="G194" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22285.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22285.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. The Subcommittee on Commerce, Manufacturing, and Trade will now come to order.    The Chair recognizes himself for 5 minutes for the purposes of an opening statement. And I certainly want to welcome everyone on our panel to the hearing, to provide an update on patent demand letters, the practices and possible solutions.    Unfortunately, abusive patent demand letters are not a new problem, and they are not new to this subcommittee. Patent trolls continue to send demand letters in bulk to induce victims to pay unjustified license fees rather than fight back. Last year, under Subcommittee Chairman Terry, this subcommittee held an oversight hearing, a legislative hearing, and eventually produced and marked up draft legislation targeting bad-faith demand letters. As this subcommittee learned through its process, the act of defining a so-called troll is a difficult task. In protecting companies from trolls, legislation must also not prevent legitimate patent holders from protecting their rights from being infringed upon by other actors. But a task that is difficult is not a task that is impossible, and I have a sincere belief that in the realm of patent demand letters, like so many other areas under the jurisdiction of this subcommittee, can effect a bipartisan agreement and legislation.    So here we are in the new year, in a new Congress, and we renew the effort to forge ahead to achieve this goal. We again take aim to solve a small piece of the patent world that has caused some of the greatest consternation. I sincerely believe that a targeted solution to this problem is the best one, and I hope that our hearing today will restart the conversations on how best to stop this activity, yet allow legitimate patent holders to proceed.    The truth is that the destructive business model of the so-called patent troll has largely skated just beyond the reach of law, and as a result, crime pays. And because Federal law has been slow to keep up with the evolving world of patent trolls, even in a subject area where Federal jurisdiction is clearly delineated in the Constitution's Article I enumerated powers of Congress, the States now have felt an obligation to begin looking at ways to protect their constituent companies. Protection of intellectual property rights is a Federal issue. Indeed, Article I, Section 8, clause 8 clearly envisions Congress as having both the power and the duty to promote the Progress of Science and useful Arts, by securing for limited Times to authors and inventors the exclusive rights to their respective writings and Discoveries. It would appear from the stories we have all heard about patent trolls that the protection of these rights is not being considered. This committee wishes to change that equation.    I am especially concerned about the effects these fraud schemes have on small businesses. When a business receives a demand letter, especially one that is intentionally vague or misleading, many small business owners simply lack the tools necessary to distinguish a bogus assertion from a legitimate infringement claim. However, the United States Patent Office lists three Web sites; Stand Up To the Demand, ThatPatentTool, and Trolling Effects, as resources that companies can use to protect themselves. There is work going on beyond this subcommittee to address some of this--these issues. For example, a number of Web sites have popped up for demand letter recipients to verify the legitimacy of infringement claims against them. Eighteen States have also enacted legislation, and a handful of State attorneys general have brought cases under their consumer protection laws.    As we will discuss today, it may be that State efforts to curb patent abuses are on uncertain legal footing due to preemption of the First Amendment doctrines that were developed by the Federal courts. These doctrines are designed to protect the fair assertion of patent rights, and any legislation this subcommittee produces must allow legitimate assertions. It is my intention that this committee can work with companies who own large patent holdings to address this issue. As many companies have seen, illegitimate claims could ultimately undercut the value of legitimate patents. To help us strike the proper balance, we will hear from experts in the field as well as representatives from both abusive demand letter victims and a large patent holder. We hope this information--this will inform the direction of whatever legislation this subcommittee ultimately produces. I hope that we may use last year's draft, the Targeting Rogue and Opaque Letters Act, as a place to begin the discussion. One area where we will need to focus on is how the bad faith standard in that legislation would work with the required disclosures in the Act. Further, how those required disclosures fit with the prohibited bad acts included in the draft legislation, and I hope that is an area we can examine closely. The subcommittee is eager to work with the panelists before us and others to address this problem.    I thank the witnesses for their testimonies, and I certainly look forward to the discussion today.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Schakowsky</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. And much of what I will say will echo the things that you have said. The--along the lines of the problems of patent trolls. I see the rise of these entities as a serious threat to consumers and businesses all across the country, and I want to explore whether we can strengthen existing protections against them as well.    Patent assertion entities typically purchase patents and then assert that those patents have been infringed, sending vague and threatening letters to hundreds or even thousands of end users, typically, small businesses or entrepreneurs. Those businesses are told that they can pay the patent troll to continue using the technology. And considering the cost and resources needed to vet and fight a patent infringement claim, although the chairman did point out some resources that are available, many small businesses do choose to settle the claim by paying the troll. Others investigate and fight the claims, draining precious resources and stunting the growth of their businesses.    It costs patent trolls virtually nothing to send patent demand letters, but they have cost American businesses tens of billions of dollars in recent years. At best, patent trolls are misleading, and at worst, they are extortionists.    This is fundamentally a fairness issue. As the subcommittee charged with protecting consumers and promoting fair business practices, we must work to reduce frivolous patent claims. I am glad that the FTC is using its existing authority to order injunctions on patent assertion entities that are determined to engage in unfair deceptive acts or practices. I believe that if we legislate on this issue, we should include new authority for the FTC to collect civil penalties for those abuses.    While we should also make sure that important consumer and business protections are guaranteed and enforced at the State level, including Illinois, remain in place. Federal legislation could also ensure the transparency and baseline standards are required for patent demand letters.    There are many ideas about how to increase transparency, including proposals to require information in patent demand letters, about the patent-alleged infringement that--the patent that is allegedly infringed, and the technology used that allegedly infringes on the patent.    As we consider acting on this issue, we must also recognize that many patent infringement claims are reasonable efforts, as the chairman mentioned, reasonable efforts to protect intellectual property. We also need to be careful to make sure that universities, research institutions, and others that develop and hold patents, but may not develop products for sale, are not unfairly labeled as patent trolls. We should not undermine the ability of innovators to develop and defend their patents.    I look forward to hearing the ideas of the panel about how we could move forward with legislation, and how it should be structured to make sure that patent demand letters are more fair and transparent moving forward.    And I thank you again, Mr. Chairman, for holding this hearing. I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412568</t>
   </si>
   <si>
+    <t>Mullin</t>
+  </si>
+  <si>
+    <t>Markwayne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mullin. No, thank you.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    The patent system plays a crucial role in promoting innovation. It provides an incentive to inventors to make costly and time-consuming investments in research and development of new inventions. At the same time, the system requires that the inventions be disclosed so that others can build upon the inventions. Unfortunately, there are a number of problems with the patent system, and reforms are needed.    I have long pushed to reduce the backlog of patent applications at the Patent and Trade Office, but we also need to work to address the concerns that some applications are being approved for inventions that are not truly new or non-obvious. In addition, the patent litigation system must be streamlined.    While most patent-related issues are under the purview of the Judiciary Committee, and I look forward to its action on patent system reform, the Energy and Commerce Committee is responsible for efforts to curb fraud. And one part of the patent litigation area in need of attention is the rise of so-called patent trolls, and the sometimes fraudulent demand letters they send to small businesses. This trolling activity is a problem. Patent trolls do not invent, make or sell anything. Instead, they buy up large numbers of patents, often of suspect validity, and then send demand letters or bring law suits using the complexity of the patent system and the high cost of litigation as leverage to force licensing fees or settlements. It is not fair to the targets of these predatory tactics, nor does it serve the interests of true innovators.    And efforts to combat abusive demand letters have already begun. Some State attorneys general have taken legal action to protect their citizens from unfair and deceptive demand letters. In addition, 18 States have already enacted legislation to tackle this abusive activity. Furthermore, the FTC brought an administrative complaint against MPH Technologies, a well-known patent troll. That case was recently settled through a consent order that prohibits MPHJ from making deceptive statements in its demand letters.    Last Congress, this committee held three hearings, and the subcommittee marked up a bill which I believe included problematic language. Among other things, it created a knowledge standard, one not typically needed to prove fraud, and it preempted stronger State laws. I am happy that this issue is being given a fresh review this Congress in an effort to get the language right and work in a bipartisan fashion. If we as a Congress choose to legislate in this area, we need to make sure that we are furthering the interests of the consumer, end users and small businesses, while protecting the vitality of the patent system.    So today's hearing presents an opportunity to hear from witnesses about how big is the problem of fraudulent demand letters, and whether there is an appropriate legislative fix. And I look forward to hearing the witnesses' thoughts on this issue, and their ideas for possible solutions.    I yield back.</t>
   </si>
   <si>
@@ -88,21 +115,33 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Self</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Self. Thank you. Chairman Burgess, Ranking Member Schakowsky and Members of the subcommittee, thank you for the opportunity to appear today to discuss patent demand letters. My name is Laurie Self, and I am Vice President and Counsel, Government Affairs for Qualcomm. Qualcomm is a member of the Innovation Alliance, a coalition of research and development focused companies that believe in the critical importance of maintaining a strong patent system.    Qualcomm is a major innovator in the wireless communications industry, and the world's leading supplier of chipsets that enable 3G and 4G smartphones, tablets and other devices. Qualcomm's founders are the quintessential example of American inventors in the garage who build one of the world's foremost technology companies. Today, the technologies invented by our engineers help make nearly everything you do with your smartphone--help everything you do with your smartphone, from browsing the internet, to sharing videos, to using GPS navigation. We are an invention hub for the mobile age, having spent more than $34 billion on R and D since the company was founded in 1985. Through the broad licensing of our patented technologies, Qualcomm has helped foster a thriving mobile industry that accounts for more than one million jobs, and $548 billion of U.S. gross domestic product. Qualcomm itself has more than 31,000 employees, the vast majority of whom are engineers based in the United States.    It is worth noting that Qualcomm is not a plaintiff in any pending patent litigation, but we are a defendant in several patent infringement law suits, some of which were brought by so-called patent assertion entities. However, I am not here to criticize or defend PAEs, but instead to address what we believe should be the proper focus of any patent demand letter legislation; namely, targeting abusive demand letter activities without unintentionally damaging important patent rights.    Notice letters play an important role in the patent system for both patent holders and accused infringers. Patent law encourages, and sometimes requires patent holders to take reasonable steps to notify others of possible infringement. Meaningful patent protection including the ability to provide notice is a key factor for companies like Qualcomm in deciding whether to invest in new products and technologies. Qualcomm appreciates the committee's interest in curtailing abusive demand letter activities. At the same time, we urge the committee to be cautious so as to not inadvertently hinder legitimate patent enforcement practices. A demand letter law that makes patent notification or enforcement too burdensome, too costly or too risky may deter appropriate notice activity. If valid patent owners are afraid to seek compensation for use of their inventions, the whole patent-based system of incentivizing innovation is undermined.    Qualcomm supports the Demand Letter Bill that passed this committee in July 2014, the Targeting Rogue and Opaque Letters Act. The TROL Act includes several key features that are necessary to strike the appropriate balance. First, the bill clarifies rather than expands the FTC's existing authority under Section 5 to address abusive demand letters.    Second, the bill is limited to situations in which the sender has engaged in a pattern or practice of mailing bad faith demand letters to consumers. The pattern or practice requirement appropriately targets the mass mailing of deceptive demand letters, and it is consistent with the FTC's Section 5 authority. An explicit bad faith requirement is necessary to protect patent holders' constitutional rights. Patent property rights are rooted in Article I of the Constitution, and the First Amendment provides strong protections for patent demand letters. As courts across the country have recognized, pre-law suit communications implicate both the freedom of speech and the constitutional right to petition the Government. To conform with the constitution, legislation must avoid punishing patent holders for good faith conduct. By clarifying the FTC's enforcement authority under Section 5, the bill is limited to communications sent to consumers, including mom and pop retailers, which protects those most vulnerable to abusive demand letters, while reducing the risk that the FTC will be drawn into business-to-business disputes.    Third, the bill clearly describes the conduct that will be considered unfair and deceptive, and does not impose overly burdensome disclosure requirements.    Fourth, the bill preempts State demand letter laws that allow State attorneys general to bring enforcement actions under the Federal statute.    With nearly 20 State legislatures having passed such bills over the past 2 years, and another dozen considering such a bill now, it would be extremely burdensome to subject patent owners to a patchwork of different demand letter requirements in every State. Preemption is appropriate and necessary in the demand letter context because unlike the TROL Act, many of these State demand letter laws are overly broad in scope, highly burdensome to patent owners, and risk penalizing ordinary commercial and pre-litigation communications, which are protected under the First Amendment.    These four features are critical to Qualcomm's support, and we urge the committee to retain these requirements and limitations in the bill. Qualcomm looks forward to working with the committee in its efforts to achieve a balanced and narrowed-tailored bill.    Thank you for allowing me to testify today, and I look forward to answering your questions.</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Malta. Chairman Burgess, Ranking Member Schakowsky, and Members of the subcommittee, my name is Vincent Malta. I am the broker of record for Malta and Company in San Francisco, California. I serve as the 2015 National Association of Realtors' Liaison for Law and Policy, and I am here to testify on behalf of the one million members of NAR.    I am also here representing United for Patent Reform Coalition, a broad and diverse group of Main Street, high tech and manufacturing companies that have united to urge the passing of strong, commonsense patent reform.    In the real estate industry, patent trolls have targeted Realtor brokers, agents and multiple listing services for implementing simple Web site technologies. Here are 5 examples where patent trolls have alleged infringement. First, the Real Estate Alliance Ltd. Filed an infringement law suit against a broker and other unnamed defendants, charging that zooming in to locate points on a map was an infringement. The case was eventually dropped after 2 years.    Second, a company called Civix-Ddi LLC charged that providing a searchable data base of property listings infringes its patents. Civix have targeted not only multiple listing services in the real estate industry, but Microsoft, Expedia, Move and other companies. NAR decided to settle this case for $7.5 million, fearing that the cost of letting the case go to trial would be exponentially more expensive.    Third, Data Distribution Technologies charged that a number of real estate firms were in patent violation by providing updates to consumers when properties matched their search criteria are coming on the market. This patent is undeniably abstract because it describes what any real estate professional already does. The real estate companies had to expend time and money to challenge the validity of this abstract patent, finally settling after 2 years.    The Austin Board of Realtors received a demand letter alleging patent infringement for having a drop-down menu on their Web site.    And finally, NAR members received abusive demand letters from the MPHJ Technologies troll that notoriously sent over 16,000 demand letters to businesses, demanding payment for using basic scan-to-mail technology.    Simply put, these patent trolls make everyday business practices potential law suits. Patent trolls typically start by sending form demand letters to dozens, hundreds, or even thousands of businesses at a time. They claim these businesses are infringing on patents, but provide little to no evidence. Typically, the sender will list a patent number only, with no reference to which claim within the patent is alleged to have been infringed. The letters are often intentionally vague, and demand a licensing fee or threaten litigation. If the business does speak with a lawyer, they are often advised to pay the fee rather than risk very costly infringement law suits. This essentially is a junk mail approach that is clogging up our legal system. NAR members and other small businesses rightfully feel extorted by this process.    In 2013, more than 2,600 companies were sued by patent trolls, representing 60 percent of all patent infringement cases brought that year. Small and medium-sized companies paid on average $1 \\1/3\\ million dollars to settle patent troll cases, and $1.7 million on average in court defense costs for patent troll litigation. Economists estimate that in 2011, patent trolls cost operating companies $80 billion in direct and indirect costs. That is more than the $66 billion State budget of Illinois, and in 2013, almost reaches the $96 billion State budget in Texas. This is a serious problem for the American business community, in particular, small businesses who lack the resources to fight these pointless battles. NAR's most recent surveys indicate that more than half of all realty firms have less than 25 agents.    In the last Congress, this subcommittee passed legislation aimed at addressing demand letter abuse. NAR and the Coalition appreciated the subcommittee's work on the Targeting Rogue and Opaque Letters Act. As the subcommittee considers legislation in this Congress, we ask that you consider a few essential guidelines. Fundamentally, patent demand letters must be held to a practical standard of transparency. They must specify the relevant patent claim at issue, they must detail all businesses allegedly infringed, they must include a description of the patent troll's investigation of the alleged infringing activity, and they must disclose the real parties and interest to the dispute. This minimum information will help recipients to thoughtfully review whether infringement allegations merit an agreement to license.    In conclusion, NAR and the United for Patent Reform Coalition urge Congress to act swiftly to enact meaningful demand letter reform for the good of our Nation's small business community, and while demand letter reform is crucial, as an important first step towards broader patent reform, it requires comprehensive and multifaceted reforms.    Thank you for your consideration of our views.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Gentleman yields back. Chair thanks the gentleman for his testimony.    Professor Gugliuzza, you are now recognized for 5 minutes for the purposes of an opening statement.</t>
   </si>
   <si>
+    <t>Gugliuzza</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gugliuzza. Chairman Burgess, Ranking Member Schakowsky, Members of the subcommittee, thank you for inviting me to testify. My name is Paul Gugliuzza, and I am an associate professor of law at Boston University School of Law.    My research focuses on patent law and patent litigation. Most relevant to this hearing, I have spent the past 2 years studying the issue of patent demand letters, focusing in particular on efforts by both State governments and the Federal Government to address the problem of unfair and deceptive conduct in patent enforcement.    To briefly summarize my conclusions, a small number of patent holders, often called bottom feeder patent trolls, have been abusing the patent system. These patent holders blanket the country with thousands of letters demanding that the recipients purchase a license for a few thousand dollars, or else face an infringement suit. The letters are usually sent to small businesses, nonprofits that do not have the resources to defend against claims of patent infringement. And the letters often contain false or misleading statements, calculated to scare the recipient into purchasing a license without investigating the merits of the allegations.    In response to this troubling behavior, legislatures in 18 States have adopted statutes that, generally speaking, outlawed bad faith assertions of patent infringement. These statutes, however, may be unconstitutional. The U.S. Court of Common Pleas Appeals for the Federal Circuit, which hears all appeals in patent cases nationwide, has held that patent holders are immune from civil claims challenging their acts of enforcement unless the patent holder knew that its infringement allegations were objectively baseless. This rule could provide patent holders with nearly absolutely immunity from liability under the new statutes. In fact, the rules already immunize two notorious trolls; Innovatio IP Ventures and MPHJ Technology Investments, from legal challenges to their enforcement campaigns under State consumer protection laws.    Although the Federal circuit has sometimes called this immunity rule a matter of the Federal Patent Acts' preemption of State law, this rule could also limit the ability of the Federal Government to regulate patent enforcement behavior. This is because the Federal circuit's decisions are not grounded in the Constitution's Supremacy Clause, which is the usual source of preemption doctrine, but in the First Amendment right to petition the Government. Unlike the Supremacy Clause, the First Amendment limits the power of the Federal Government, not just State governments. Accordingly, patent holders may also be able to invoke this immunity to thwart Federal initiatives to fight patent trolls, including any legislation this committee might consider.    To be clear, no court has yet addressed the constitutionality of the new State statutes. Moreover, as I discuss in more detail in my written statement, there is a strong argument that the Federal circuit's immunity doctrine is wrong as a matter of law, policy and historical practice. So it is entirely possible that the Federal circuit can revise its immunity doctrine to accommodate greater regulation of patent enforcement conduct. Indeed, the Federal circuit keeps close watch when Congress is considering amending patent law, and in the past decade, the court has repeatedly revised its case law to align with proposed legislation.    This hearing provides a welcome occasion to discuss the innovative steps that State governments have taken to combat unfair and deceptive patent enforcement. Any bill advanced by this committee should, in my view, capitalize on the respective strengths of State governments and the Federal Government in this area. The strengths of State governments include, first, the quantity of law enforcement resources that could be provided by dozens of States attorneys general offices cooperating to fight abusive patent enforcement. And second, the accessibility of State governments to the small businesses, nonprofits and local governments most likely to be targeted by deceptive campaigns of patent enforcement. By contrast, Federal legislation on patent demand letters would provide the benefits of legal uniformity and predictability for patent holders about whether or not their enforcement actions are legal. In addition, as I explained in my written testimony, Federal legislation could clarify difficult jurisdictional issues that currently arise in cases challenging the lawfulness of patent enforcement conduct.    If this committee determines that Federal legislation is warranted, that legislation should, in my view, specifically condemn bad faith assertions of patent infringement. Until the Federal circuit adopted its objective baselessness requirement, courts had applied a bad faith standard for nearly a century, striking an appropriate balance between the goals of punishing extortionate schemes of patent enforcement, and respecting patent holders' rights to make legitimate allegations of infringement.    Thank you again for inviting me to testify, and I would be pleased to answer any questions the committee might have for me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. Gentleman yields back. The Chair thanks the gentleman for his testimony.    Ms. Ranieri, you are recognized for 5 minutes for the purposes of an opening statement.</t>
   </si>
   <si>
+    <t>Ranieri</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ranieri. Mr. Chairman, Ranking Member Schakowsky, and Members of the subcommittee, thank you for the opportunity to be here today.    For those of you who aren't familiar with my organization, the Electronic Frontier Foundation, or EFF, we are a nonprofit organization dedicated to protecting consumer interests, innovation and free expression in the digital world. As part of that work, we regularly advocate for reform of the patent system in courts, Congress, and at the Patent and Trademark Office. EFF is greatly encouraged by Congress' interest in the important issue of deceptive and abuse patent rule demand letters, and its impact on consumers and small businesses.    EFF is one of the few nonprofit legal services organizations that small businesses and innovators can turn to in order to get help when faced with a patent troll demand letter. Unfortunately, we cannot help everyone, and more importantly, because of a lack of meaningful, manageable legal options, we are too often unable to help push back against those who use deceptive patent demand letters in order to extract money from their victims.    The problem of abusive patent rule demand letters is a result of a perfect storm of circumstances. Patent owners sending these letters use vague and overbroad patents that likely never should have issued, in order to confuse and obfuscate. Patent owners rely on the eye-popping cost of litigation in order to intimidate, and patent owners take advantage of their victims' relative lack of experience with technology and the legal system to ensure improper claims of infringement go unchallenged. For example, in 2011, a company known as Eclipse IP sent demand letters to various retailers alleging infringement of patents on tracking packages through the use of UPS tracking. Eclipse demanded licenses in the hundreds of thousands of dollars. Seeing their customers being targeted, UPS filed a declaratory judgment of non-infringement and invalidity, but before the court could address whether Eclipse's claims of infringement had merit, Eclipse filed what is known as a covenant not to sue. In doing so, Eclipse ensured that its patent rights would not actually be litigated, that is, they did everything in their power to stop the court from deciding the merits of its claims. Eclipse apparently merely wanted to extract settlements from its victims, despite assertions in its demand letter that it would engage in litigation if its licensing demands were not met. Since 2011, Eclipse has sued over 100 companies and presumably sent letters to countless others.    Letters and actions like Eclipse's are all too common. Other letters employ tactics such as not mentioning licenses that likely exhaust patent rights, or use complex and vague nonsense terms from the patent in order to make infringement claims that would never have been apparent to someone reading the patent. Dealing with even the most frivolous of letters takes time and money away from what small businesses should be doing, which is growing their business and creating jobs.    I could tell many more stories, but most demand letters never see the light of day. Recipients of letters from patent trolls are often afraid of speaking out, and no wonder, by speaking out, they worry they would become an even bigger target and subject to even larger demands they cannot afford. Patent trolls use this fact to hide their practices from scrutiny and from lawmakers and the public.    Deceptive and unfair patent troll demand letters must be addressed, but it is important to address them in a way that makes sense. Specifically, Congress should not limit the ability of State attorneys general to protect their citizens, whether that be through State laws addressing abusive demand letters, or through their own little FTC acts. State AGs are often the closest to the problem, and in the best position to address deceptive practices targeted at their citizens. Second, Congress should allow for flexibility in the law. Overly rigid rules regarding what constitutes bad faith will allow patent trolls to comply with the letter of the law but not the spirit. As a lawyer, I can assure you that we are enterprising people. If there is a loophole to be found, we will find it. Flexibility is key to ensuring patent trolls don't find new ways to deceive their targets.    Finally, in order to protect technology end users such as retailers and tracking--such as retailers implementing tracking technology, or the coffee shop offering Wi-Fi, Congress should mandate disclosure requirements. Through these disclosure requirements, Congress can better understand the scope of the problem, and agencies such as the PTO, the FTC, and nonprofit organizations such as EFF, can better target those practices and those patents that are being abused.    Addressing the deceptive patent troll demand letter problem is an important piece of broader patent reform. In tandem with other measures, we can limit the ability of patent holders to use patents that never should have been issued, to extort undeserved money from those who just want to pursue their livelihoods.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -220,6 +259,12 @@
     <t>412221</t>
   </si>
   <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clarke. I thank you, Mr. Chairman. And I would like to thank our witnesses for their testimony this morning.    In addition to serving on the Energy and Commerce Committee, I also serve on the Small Business Committee in our House, and our small business community lists fear of patent litigation as one of the biggest issues they face. So I am pleased that we are taking up this issue today.    Frequently, patent trolls target end users of patented technology, such as small, local businesses who have simply purchased or use off-the-shelf products like a wireless router or scanner. These small businesses often lack expertise in patent law, and have few resources. When faced with the cost of defending even perfectly reasonable behavior, they find it is cheaper just to make a payment to settle the case.    Ms. Ranieri, to what extent do patent trolls target the little guy, small businesses, startup, and mom and pop establishments, and what are some examples of everyday products that patent trolls are now claiming infringe their intellectual property?</t>
   </si>
   <si>
@@ -262,6 +307,12 @@
     <t>412250</t>
   </si>
   <si>
+    <t>Bilirakis</t>
+  </si>
+  <si>
+    <t>Gus</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you, Mr. Chairman. I appreciate it so very much, and I thank the panel for their testimony.    Patent demand letters reform is an important part of curbing abusive practices that hurt legitimate businesses, as you know. However, I am concerned that overly broad definitions of patent assertion entities in other provisions that have been proposed, such as fee shifting and joinder, will limit our Nation's research universities, and their ability to have patented research discoveries transferred to start up receiving venture funding that can develop and commercialize these early discoveries.    The University of South Florida, just outside of my district in Tampa, Florida, is a world leader in university-based patents, licenses and startup companies, and is a major regional economic hub and job creator in our area.    Again, Ms. Ranieri and Professor Gugliuzza, excuse me if I mispronounce, what do you believe is the appropriate balance to ensure that the technology transfer process thrives, while simultaneously implementing the real reform targeted at bad actors with no intention to commercialize innovations?</t>
   </si>
   <si>
@@ -292,6 +343,12 @@
     <t>412543</t>
   </si>
   <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you, Mr. Chairman. I want to thank the witnesses for testifying today and for your attention to an important topic.    Professor Gugliuzza, thanks for bringing the Boston weather with you. I wish you would have left it at home, but nevertheless, appreciate it.    I want to flush out a little bit of a conversation we have had in the--before as well. My First Amendment law, while being a lawyer, is perhaps a little shaky. So there has been, I think some testimony that has touched already on the Noerr-Pennington doctrine, which touches on immunity of parties who are petitioning the Government for certain types of liability. Generally speaking, it is my understanding that this doctrine began in an antitrust base, but it has been steadily expanded over the course of case law throughout the years.    So, Professor, starring with you, with regard to the Noerr-Pennington doctrine, I think that there are two open areas here, right? One is, does it apply to patent demand letters, and does it apply in the consumer protection context? And I was hoping you can just start with those--kind of that basic framework.</t>
   </si>
   <si>
@@ -343,6 +400,12 @@
     <t>412302</t>
   </si>
   <si>
+    <t>Olson</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Olson. I thank the Chair. And welcome to our witnesses. Ms. Self, Mr. Malta, Ms. Ranieri, and certainly no disrespect, but can I call you Professor G? Is that OK, because----</t>
   </si>
   <si>
@@ -403,6 +466,9 @@
     <t xml:space="preserve">    Mr. Burgess. Gentleman yields back. Chair thanks the gentleman.    Chair recognizes the gentleman from California, Mr. Cardenas, for 5 minutes for purposes of questions please.</t>
   </si>
   <si>
+    <t>Cardenas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you very much, Mr. Chairman. And I appreciate this opportunity to discuss this important issue that really is hampering our economic ability throughout the country. One of the things that the United States has been recognized for, and we should be very proud of, is we are the innovative capital of the world, but when we have people who take opportunity to try to thwart that, that is something that, to me, strikes at the core of our ability to continue to be an economic driver, not only for ourselves as a country but for the world.    Last year, I introduced a bipartisan bill to address patent troll abuse at the International Trade Commission. Patent trolls have been impacting businesses in every forum, and we should do everything that we can to curb their ability to exploit businesses of every size, small and large. Patent trolls' abuse of the complicated patent system can harm our economy, and hamper innovation by imposing huge litigation costs on productive companies.    I would like to get a sense of the significance of the problem that we--that faces us here today. Ms. Ranieri, in your testimony, you quoted Seventh Circuit Judge Posner's statement, and I am paraphrasing, patent trolls are not trying to protect the market for products they want to produce, but instead, lay traps for producers. How does patent toll activity negatively affect the economy and innovation as far as you are concerned?</t>
   </si>
   <si>
@@ -430,6 +496,12 @@
     <t>412421</t>
   </si>
   <si>
+    <t>Kinzinger</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kinzinger. Thank you, Mr. Chairman. And again, to our witnesses, thank you for being here today and spending some time with us.    Ms. Self, companies like Qualcomm have large patent portfolios because they have invested a large amount of money in new patents and the creation of new products. And presumably, many of Qualcomm's patents can be similar to patents held by other companies. When Qualcomm believes a similar company with a large patent portfolio may be infringing on its patents, how does Qualcomm open communications with that company?</t>
   </si>
   <si>
@@ -499,6 +571,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chair.    Profession Gugliuzza, I am worried about the widespread practice of sending abusive demand letters. As we have heard, it is a drain on employers and a drain on jobs. And apparently, according to a University of California Hastings College of Law study, 70 percent of venture capitalists had portfolio companies that received patent demand letters. It is a--it does seem suspicious to see so many startups hit with patent claims, and it is troubling to think, and as we have heard, that startups in particular may have a good bit of their funding and money going into fighting patent claims right off the bat.    Do you have any sense, or have you seen anything that talks about how much money and how many jobs are being impacted in our economy to fight off these types of abusive demand letters?</t>
   </si>
   <si>
@@ -530,6 +608,12 @@
   </si>
   <si>
     <t>412278</t>
+  </si>
+  <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. Thank the panel for being here.    Sorry, I was in another hearing of this same committee, in another subcommittee, so I apologize that I may ask questions and you all sort of repeat a little bit of what Mrs. Brooks just asked, but I think a lot of us here are just trying to get our heads around this. I think when you talk about the sports--I can--my son played little league, because I know there are guys in my area go online, you can buy pictures, and I can see where that-- I mean, $250,000, and those stories are out there, they are real. And that is clear, we need to stop that. Then I have my friend, Thomas Massie here, who represents the northern part of Kentucky, District 4, 3 or--I am 2, so 4 maybe, 4, in Kentucky, he was an inventor. And so when we hear the story like you, Ms. Ranieri, and it is like, well, this is simple, we need to fix this, so that is obviously--obviously needs to be fixed. And then you hear people say, well, if people have patents, if they are not using them, that is a good way--like the manufacturer. Well, then Thomas explains in a long dissertation at breakfast one day about how a lot of people who are legitimate patent holders, who will legitimately invent, hold these patents because they don't have the means or the ability, they are trying to move forward. And so if you do this and this kind of--that kind of reaction to stop patent trolls is going to--could stop the small entrepreneurial inventor, and so you have unintended consequences.    So I am--I guess what I am asking, is there any of this expert panel--where can we delineate between--what--you know, was the old Justice Potter, I know it when I see it. I can't really describe it, but I know it when I see it. And how do you delineate between what is clearly somebody out there patent trolling, versus, you know, somebody like Thomas who works in his garage and comes up with--essentially what you did, come up with several patents that, you know, takes him a while to find the resources to move forward. And so the question is the people just out searching, and then you have trolling, and then you have the people who are legitimate small folks. And that is what we are trying to find with the balance, because we want to fix the problem, but we don't want to have unintended consequences. So I will kind of open it up to the panel.</t>
@@ -989,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,7 +1081,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,4637 +1103,5437 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>97</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G71" t="s">
+        <v>97</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>97</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>97</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G77" t="s">
+        <v>109</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G79" t="s">
+        <v>109</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G81" t="s">
+        <v>109</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G83" t="s">
+        <v>109</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G85" t="s">
+        <v>109</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>91</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G89" t="s">
+        <v>109</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>91</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G91" t="s">
+        <v>109</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>128</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G101" t="s">
+        <v>128</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>108</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G103" t="s">
+        <v>128</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>108</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G105" t="s">
+        <v>128</v>
+      </c>
       <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>108</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G107" t="s">
+        <v>128</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>108</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G109" t="s">
+        <v>128</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>41</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>108</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G111" t="s">
+        <v>128</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>150</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>150</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>41</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
+        <v>150</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G118" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G119" t="s">
+        <v>150</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>137</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G121" t="s">
+        <v>160</v>
+      </c>
       <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
+        <v>33</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G123" t="s">
+        <v>160</v>
+      </c>
       <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>33</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>137</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G125" t="s">
+        <v>160</v>
+      </c>
       <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>137</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G127" t="s">
+        <v>160</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G129" t="s">
+        <v>160</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>137</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G131" t="s">
+        <v>160</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
+        <v>38</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>137</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G133" t="s">
+        <v>160</v>
+      </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>38</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>137</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G135" t="s">
+        <v>160</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>38</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>137</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G137" t="s">
+        <v>160</v>
+      </c>
       <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s">
+        <v>38</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>137</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G139" t="s">
+        <v>160</v>
+      </c>
       <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G140" t="s">
+        <v>38</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>137</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G141" t="s">
+        <v>160</v>
+      </c>
       <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>160</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G143" t="s">
+        <v>185</v>
+      </c>
       <c r="H143" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>160</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G145" t="s">
+        <v>185</v>
+      </c>
       <c r="H145" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>160</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G147" t="s">
+        <v>185</v>
+      </c>
       <c r="H147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G148" t="s">
+        <v>41</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>160</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G149" t="s">
+        <v>185</v>
+      </c>
       <c r="H149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>160</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G151" t="s">
+        <v>185</v>
+      </c>
       <c r="H151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>171</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G153" t="s">
+        <v>198</v>
+      </c>
       <c r="H153" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I153" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G154" t="s">
+        <v>35</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>171</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G155" t="s">
+        <v>198</v>
+      </c>
       <c r="H155" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>171</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G157" t="s">
+        <v>198</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I157" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
+        <v>38</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>171</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G160" t="s">
+        <v>198</v>
+      </c>
       <c r="H160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G161" t="s">
+        <v>38</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>171</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G162" t="s">
+        <v>198</v>
+      </c>
       <c r="H162" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G163" t="s">
+        <v>38</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>171</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G164" t="s">
+        <v>198</v>
+      </c>
       <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G165" t="s">
+        <v>38</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>171</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G166" t="s">
+        <v>198</v>
+      </c>
       <c r="H166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G167" t="s">
+        <v>38</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>171</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G168" t="s">
+        <v>198</v>
+      </c>
       <c r="H168" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>23</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G169" t="s">
+        <v>38</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>171</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G170" t="s">
+        <v>198</v>
+      </c>
       <c r="H170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G171" t="s">
+        <v>38</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>171</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G172" t="s">
+        <v>198</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I172" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G173" t="s">
+        <v>38</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>171</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G174" t="s">
+        <v>198</v>
+      </c>
       <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I174" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>23</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G175" t="s">
+        <v>38</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>171</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G176" t="s">
+        <v>198</v>
+      </c>
       <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I176" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>23</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G177" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>171</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G178" t="s">
+        <v>198</v>
+      </c>
       <c r="H178" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G180" t="s">
+        <v>33</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G182" t="s">
+        <v>41</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>171</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>197</v>
+      </c>
+      <c r="G183" t="s">
+        <v>198</v>
+      </c>
       <c r="H183" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>199</v>
+      </c>
+      <c r="I183" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>18</v>
+      </c>
       <c r="H185" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I185" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G187" t="s">
+        <v>41</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G188" t="s">
+        <v>38</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
       <c r="H189" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G191" t="s">
+        <v>18</v>
+      </c>
       <c r="H191" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I191" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
       <c r="H193" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>18</v>
+      </c>
       <c r="H194" t="s">
-        <v>208</v>
+        <v>19</v>
+      </c>
+      <c r="I194" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22285.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22285.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Burgess</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Schakowsky</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>412568</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Mullin</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
   </si>
   <si>
     <t>400308</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Pallone</t>
@@ -1073,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1096,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,5434 +1121,5848 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>41</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I71" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G73" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" t="s">
-        <v>38</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G81" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I81" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G85" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" t="s">
-        <v>41</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G87" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" t="s">
-        <v>41</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G89" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" t="s">
-        <v>38</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>43</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G91" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
-      </c>
-      <c r="G96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G97" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H97" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I97" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G99" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>38</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G103" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>38</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G105" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I105" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G107" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G109" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110" t="s">
-        <v>41</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G111" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" t="s">
-        <v>150</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>155</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>41</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
-      </c>
-      <c r="G115" t="s">
-        <v>150</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>155</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" t="s">
-        <v>41</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" t="s">
-        <v>150</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118" t="s">
-        <v>41</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" t="s">
-        <v>150</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>155</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G121" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H121" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>33</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G123" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I123" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
-      </c>
-      <c r="G124" t="s">
-        <v>33</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G125" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I125" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>38</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G127" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H127" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I127" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" t="s">
-        <v>33</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G129" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I129" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
-      </c>
-      <c r="G130" t="s">
-        <v>33</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G131" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H131" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I131" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" t="s">
-        <v>38</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G133" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I133" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
-      </c>
-      <c r="G134" t="s">
-        <v>38</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G135" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I135" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" t="s">
-        <v>38</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G137" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I137" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
-      </c>
-      <c r="G138" t="s">
-        <v>38</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>43</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G139" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I139" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" t="s">
-        <v>38</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G141" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I141" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="J141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G143" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="H143" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="J143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
-      </c>
-      <c r="G144" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>43</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G145" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="H145" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="J145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
-      </c>
-      <c r="G146" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>40</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G147" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="H147" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I147" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>41</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>46</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G149" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I149" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="J149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>38</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G151" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="H151" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I151" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="J151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G153" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H153" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J153" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
-      </c>
-      <c r="G154" t="s">
-        <v>35</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>40</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G155" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H155" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I155" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J155" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
-      </c>
-      <c r="G156" t="s">
-        <v>35</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>40</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G157" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I157" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J157" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" t="s">
-        <v>35</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>40</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
-      </c>
-      <c r="G159" t="s">
-        <v>38</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>43</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G160" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H160" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I160" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
-      </c>
-      <c r="G161" t="s">
-        <v>38</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>43</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G162" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H162" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I162" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
-      </c>
-      <c r="G163" t="s">
-        <v>38</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>43</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G164" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H164" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I164" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J164" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
-      </c>
-      <c r="G165" t="s">
-        <v>38</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G166" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I166" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
-      </c>
-      <c r="G167" t="s">
-        <v>38</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>43</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G168" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I168" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J168" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
-      </c>
-      <c r="G169" t="s">
-        <v>38</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>43</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G170" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H170" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I170" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
-      </c>
-      <c r="G171" t="s">
-        <v>38</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>43</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G172" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I172" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
-      </c>
-      <c r="G173" t="s">
-        <v>38</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>43</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G174" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I174" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
-      </c>
-      <c r="G175" t="s">
-        <v>38</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>43</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G176" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I176" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
-      </c>
-      <c r="G177" t="s">
-        <v>33</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>38</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G178" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H178" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I178" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J178" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
-      </c>
-      <c r="G180" t="s">
-        <v>33</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>38</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
-      </c>
-      <c r="G182" t="s">
-        <v>41</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>46</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G183" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="H183" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I183" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G185" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H185" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I185" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I186" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
-      </c>
-      <c r="G187" t="s">
-        <v>41</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>46</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
-      </c>
-      <c r="G188" t="s">
-        <v>38</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>43</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I189" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G191" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H191" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I191" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I193" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G194" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I194" t="s">
-        <v>236</v>
+        <v>22</v>
+      </c>
+      <c r="J194" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
